--- a/tutorials/activity_browser/exercises/parametric_lca_v1.xlsx
+++ b/tutorials/activity_browser/exercises/parametric_lca_v1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CE3B66-90E9-4280-BA42-C9EDA73D4B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53B5DAD-DBDB-4EF8-B04C-09FF845D18F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3615" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Process data" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="74">
   <si>
     <t>Activity</t>
   </si>
@@ -244,19 +244,7 @@
     <t>diesel_consumption*pm25_diesel*urban_driving</t>
   </si>
   <si>
-    <t>diesel_consumption*pm25_diesel*(1-urban_driving)</t>
-  </si>
-  <si>
-    <t>diesel_consumption*co2_diesel</t>
-  </si>
-  <si>
-    <t>diesel_consumption*n2o_diesel</t>
-  </si>
-  <si>
     <t>parametric_LCA_v1</t>
-  </si>
-  <si>
-    <t>diesel_consumption*0</t>
   </si>
   <si>
     <t>Parameters</t>
@@ -319,7 +307,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,6 +338,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -364,7 +364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -395,6 +395,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P324"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -741,7 +744,8 @@
     <col min="6" max="6" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53.42578125" style="2" customWidth="1"/>
     <col min="8" max="8" width="77" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="12.5703125" style="1"/>
+    <col min="9" max="9" width="53.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="12.5703125" style="1"/>
     <col min="17" max="16384" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
@@ -750,7 +754,7 @@
         <v>25</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -1534,10 +1538,10 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
@@ -1591,7 +1595,7 @@
       <c r="O38" s="14"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="28" t="s">
         <v>52</v>
       </c>
       <c r="B39" s="18">
@@ -1680,7 +1684,7 @@
       <c r="H42" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I42" s="13" t="s">
+      <c r="I42" s="26" t="s">
         <v>40</v>
       </c>
       <c r="J42" s="13" t="s">
@@ -1730,7 +1734,7 @@
       <c r="H43" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I43" s="14"/>
+      <c r="I43" s="27"/>
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
@@ -1762,7 +1766,7 @@
       <c r="H44" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="I44" s="14"/>
+      <c r="I44" s="27"/>
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
       <c r="L44" s="14"/>
@@ -1794,7 +1798,7 @@
       <c r="H45" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="I45" s="14" t="s">
+      <c r="I45" s="28" t="s">
         <v>52</v>
       </c>
       <c r="J45" s="14"/>
@@ -2588,10 +2592,10 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
@@ -2655,15 +2659,9 @@
         <v>59</v>
       </c>
       <c r="D83" s="18"/>
-      <c r="E83" s="18">
-        <v>3</v>
-      </c>
-      <c r="F83" s="18">
-        <v>0.06</v>
-      </c>
-      <c r="G83" s="18">
-        <v>0.02</v>
-      </c>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
       <c r="H83" s="18"/>
       <c r="I83" s="19"/>
       <c r="J83" s="19"/>
@@ -2686,15 +2684,11 @@
       <c r="D84" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E84" s="18">
-        <v>4</v>
-      </c>
+      <c r="E84" s="18"/>
       <c r="F84" s="18"/>
       <c r="G84" s="18"/>
       <c r="H84" s="18"/>
-      <c r="I84" s="19">
-        <v>0</v>
-      </c>
+      <c r="I84" s="19"/>
       <c r="J84" s="19">
         <v>1</v>
       </c>
@@ -2715,18 +2709,10 @@
         <v>64</v>
       </c>
       <c r="D85" s="18"/>
-      <c r="E85" s="18">
-        <v>8</v>
-      </c>
-      <c r="F85" s="18">
-        <v>3</v>
-      </c>
-      <c r="G85" s="18">
-        <v>3.16</v>
-      </c>
-      <c r="H85" s="18">
-        <v>2</v>
-      </c>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
       <c r="I85" s="19"/>
       <c r="J85" s="19"/>
       <c r="K85" s="12"/>
@@ -2746,15 +2732,9 @@
         <v>64</v>
       </c>
       <c r="D86" s="18"/>
-      <c r="E86" s="18">
-        <v>2</v>
-      </c>
-      <c r="F86" s="18">
-        <v>-7</v>
-      </c>
-      <c r="G86" s="18">
-        <v>0.05</v>
-      </c>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
       <c r="H86" s="18"/>
       <c r="I86" s="19"/>
       <c r="J86" s="19"/>
@@ -2856,7 +2836,7 @@
       <c r="H90" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I90" s="11" t="s">
+      <c r="I90" s="26" t="s">
         <v>40</v>
       </c>
       <c r="J90" s="11" t="s">
@@ -2906,7 +2886,7 @@
       <c r="H91" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I91" s="12"/>
+      <c r="I91" s="27"/>
       <c r="J91" s="12"/>
       <c r="K91" s="12"/>
       <c r="L91" s="12"/>
@@ -2938,7 +2918,7 @@
       <c r="H92" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="I92" s="12"/>
+      <c r="I92" s="27"/>
       <c r="J92" s="12"/>
       <c r="K92" s="12"/>
       <c r="L92" s="12"/>
@@ -2970,9 +2950,7 @@
       <c r="H93" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I93" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="I93" s="27"/>
       <c r="J93" s="12"/>
       <c r="K93" s="12"/>
       <c r="L93" s="12"/>
@@ -3002,9 +2980,7 @@
       <c r="H94" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I94" s="12" t="s">
-        <v>71</v>
-      </c>
+      <c r="I94" s="27"/>
       <c r="J94" s="12"/>
       <c r="K94" s="12"/>
       <c r="L94" s="12"/>
@@ -3034,9 +3010,7 @@
       <c r="H95" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I95" s="12" t="s">
-        <v>72</v>
-      </c>
+      <c r="I95" s="27"/>
       <c r="J95" s="12"/>
       <c r="K95" s="12"/>
       <c r="L95" s="12"/>
@@ -3066,9 +3040,7 @@
       <c r="H96" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I96" s="12" t="s">
-        <v>74</v>
-      </c>
+      <c r="I96" s="27"/>
       <c r="J96" s="12"/>
       <c r="K96" s="12"/>
       <c r="L96" s="12"/>
@@ -3097,7 +3069,7 @@
       <c r="H97" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I97" s="12" t="s">
+      <c r="I97" s="27" t="s">
         <v>69</v>
       </c>
       <c r="J97" s="12"/>
@@ -3128,9 +3100,7 @@
       <c r="H98" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I98" s="12" t="s">
-        <v>70</v>
-      </c>
+      <c r="I98" s="27"/>
       <c r="J98" s="12"/>
       <c r="K98" s="12"/>
       <c r="L98" s="12"/>
